--- a/admin/app/config/static/user_template.xlsx
+++ b/admin/app/config/static/user_template.xlsx
@@ -1,27 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\2.Python\next_console\next_console_admin\app\config\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="8085"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
-    <sheet name="模板填写说明" sheetId="1" r:id="rId1"/>
-    <sheet name="用户数据" sheetId="2" r:id="rId2"/>
+    <sheet name="用户数据" sheetId="2" r:id="rId1"/>
+    <sheet name="模板填写说明" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
+    <t>用户名称（必填）</t>
+  </si>
+  <si>
+    <t>密码（选填）</t>
+  </si>
+  <si>
+    <t>用户昵称（选填）</t>
+  </si>
+  <si>
+    <t>邮箱（选填）</t>
+  </si>
+  <si>
+    <t>手机号（选填）</t>
+  </si>
+  <si>
+    <t>性别（选填）</t>
+  </si>
+  <si>
+    <t>年龄（选填）</t>
+  </si>
+  <si>
+    <t>职位（选填）</t>
+  </si>
+  <si>
+    <t>部门ID（选填）</t>
+  </si>
+  <si>
+    <t>资源库空间上限，以mb为单位（选填）</t>
+  </si>
+  <si>
     <t>注意：此页为说明页，写入数据无效</t>
   </si>
   <si>
@@ -40,9 +78,6 @@
     <t>性别（选填，默认其他）</t>
   </si>
   <si>
-    <t>角色（必填）</t>
-  </si>
-  <si>
     <t>calvin.xing@turing.com.cn</t>
   </si>
   <si>
@@ -50,41 +85,19 @@
   </si>
   <si>
     <t>男</t>
-  </si>
-  <si>
-    <t>系统管理员</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>部门（必填）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +122,143 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +271,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -137,12 +466,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -150,166 +718,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -320,7 +818,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -348,40 +846,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -631,69 +1243,127 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="26.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="17.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="22.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="25.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="21.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="34.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E$1:E$1048576"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="28.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="14.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="17.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="25.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="14.8727272727273" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" ht="102" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>13248216539</v>
@@ -702,76 +1372,26 @@
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576">
       <formula1>"男,女,其他"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"系统管理员,游客,普通用户"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="calvin.xing@turing.com.cn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"男,女,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"游客,普通用户,管理员"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>